--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006931</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数C</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>8.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004521</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004522</t>
+          <t>004521</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>86.02</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>004522</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.80</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1482,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1561,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1577,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004521</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004522</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,112 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>004321</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>48.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0515</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006644</t>
+          <t>006930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方消费升级混合</t>
+          <t>泰康中证港股通TMT主题指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.0204</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -961,149 +771,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>006931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006930</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006931</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰康中证港股通TMT主题指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1288,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1005,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1339,36 +1035,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006930</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康中证港股通TMT主题指数A</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>90.52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0204</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1377,35 +1073,149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>006931</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>泰康中证港股通TMT主题指数C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1420,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1251,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1281,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004321</t>
+          <t>006644</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深强国产业灵活配置混合</t>
+          <t>弘毅远方消费升级混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.46</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0515</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1514,128 +1400,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.11</v>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/02018-瑞声科技.xlsx
+++ b/数据整理/stocks/港股/02018-瑞声科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -808,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1224,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
